--- a/Performance.xlsx
+++ b/Performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12600"/>
+    <workbookView windowWidth="28245" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,11 +95,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??.00_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -116,27 +117,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -149,31 +133,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,7 +155,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -208,18 +178,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -230,8 +192,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,10 +223,17 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -259,6 +244,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,6 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -275,7 +282,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,49 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,91 +426,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,7 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,24 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,11 +481,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,6 +499,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,168 +561,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -717,13 +718,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q56"/>
+  <dimension ref="A2:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10:P20"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="R1" sqref="R$1:R$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="14.25"/>
@@ -1056,9 +1057,9 @@
     <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.625" style="1"/>
     <col min="4" max="4" width="18.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="12.625" style="1"/>
+    <col min="5" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" style="1" customWidth="1"/>
     <col min="9" max="9" width="8.8" style="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.625" style="1"/>
@@ -1066,9 +1067,10 @@
     <col min="13" max="13" width="18.75" style="1" customWidth="1"/>
     <col min="14" max="14" width="12.625" style="1"/>
     <col min="15" max="15" width="8.8" style="1"/>
-    <col min="16" max="16" width="15" style="1" customWidth="1"/>
-    <col min="17" max="17" width="12.625" style="1"/>
-    <col min="18" max="16384" width="8.8" style="1"/>
+    <col min="16" max="16" width="18.75" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.625" style="1"/>
+    <col min="19" max="16384" width="8.8" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7">
@@ -1091,7 +1093,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1107,14 +1109,15 @@
         <f>H20</f>
         <v>1.78337097167968e-5</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <f>K20</f>
         <v>0.000457978248596191</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="3">
         <f>N20</f>
         <v>0.0332365274429321</v>
       </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
@@ -1132,15 +1135,15 @@
         <f>H32</f>
         <v>6.89506530761718e-5</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <f>K32</f>
         <v>0.000477957725524902</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="3">
         <f>N32</f>
         <v>0.00413594245910644</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <f>Q32</f>
         <v>8.46339843273162</v>
       </c>
@@ -1161,15 +1164,15 @@
         <f>H44</f>
         <v>0.000411534309387207</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <f>K44</f>
         <v>0.00170011520385742</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="3">
         <f>N44</f>
         <v>0.0116952657699584</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="3">
         <f>Q44</f>
         <v>16.1517734766006</v>
       </c>
@@ -1190,468 +1193,491 @@
         <f>H56</f>
         <v>6.27279281616211e-5</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <f>K56</f>
         <v>0.000300860404968261</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="3">
         <f>N56</f>
         <v>0.00217852592468261</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <f>Q56</f>
         <v>4.96660239696502</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>1.9073486328125e-6</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>7.39097595214843e-6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="2">
         <v>2.07424163818359e-5</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="1">
         <v>0.000709772109985351</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N10" s="1">
         <v>0.0356535911560058</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="2" t="s">
+      <c r="Q10" s="4">
+        <v>54933.2716553211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>1.43051147460937e-6</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>6.19888305664062e-6</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="2">
         <v>1.52587890625e-5</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="1">
         <v>0.000613689422607421</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N11" s="1">
         <v>0.0344488620758056</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="2" t="s">
+      <c r="Q11" s="4">
+        <v>52222.422977209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>7.39097595214843e-6</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>1.71661376953125e-5</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K12" s="1">
         <v>0.000576734542846679</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N12" s="1">
         <v>0.0315339565277099</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="2" t="s">
+      <c r="Q12" s="4">
+        <v>53238.2796676158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>7.86781311035156e-6</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>1.3589859008789e-5</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K13" s="1">
         <v>0.000396728515625</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N13" s="1">
         <v>0.032973289489746</v>
       </c>
-      <c r="P13" s="2" t="s">
+      <c r="P13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="2" t="s">
+      <c r="Q13" s="4">
+        <v>55213.730528593</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>4.76837158203125e-7</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>1.04904174804687e-5</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="2">
         <v>1.57356262207031e-5</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="1">
         <v>0.000357627868652343</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N14" s="1">
         <v>0.0342617034912109</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q14" s="4">
+        <v>53112.7029602527</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>1.12056732177734e-5</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="2">
         <v>1.78813934326171e-5</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="1">
         <v>0.000380754470825195</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>0.0322592258453369</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="P15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>4.76837158203125e-7</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>5.48362731933593e-6</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>2.1219253540039e-5</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K16" s="1">
         <v>0.000365972518920898</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="1">
         <v>0.0322542190551757</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="P16" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>6.67572021484375e-6</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="2">
         <v>1.62124633789062e-5</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K17" s="1">
         <v>0.00040435791015625</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N17" s="1">
         <v>0.0335752964019775</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="P17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>6.43730163574218e-6</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2">
         <v>1.69277191162109e-5</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K18" s="1">
         <v>0.000422000885009765</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N18" s="1">
         <v>0.0329608917236328</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="P18" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <v>9.5367431640625e-7</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>4.05311584472656e-6</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2">
         <v>2.36034393310546e-5</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>0.000352144241333007</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N19" s="1">
         <v>0.0324442386627197</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="P19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>8.82148742675781e-7</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>7.31945037841796e-6</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2">
         <v>1.78337097167968e-5</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K20" s="1">
         <v>0.000457978248596191</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N20" s="1">
         <v>0.0332365274429321</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="P20" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="Q20" s="4">
+        <f>AVERAGE(Q10:Q19)</f>
+        <v>53744.0815577983</v>
+      </c>
+      <c r="R20" s="4">
+        <f>Q20/3600</f>
+        <v>14.9289115438329</v>
+      </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -1665,31 +1691,31 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <v>1.19209289550781e-6</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>7.34329223632812e-5</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2">
         <v>7.39097595214843e-5</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K22" s="1">
         <v>0.000447273254394531</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N22" s="1">
@@ -1698,36 +1724,36 @@
       <c r="P22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="4">
         <v>7.56347370147705</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <v>7.15255737304687e-7</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>5.9366226196289e-5</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>6.72340393066406e-5</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K23" s="1">
         <v>0.000592947006225585</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N23" s="1">
@@ -1736,36 +1762,36 @@
       <c r="P23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="4">
         <v>7.5110969543457</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <v>2.38418579101562e-7</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>7.20024108886718e-5</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2">
         <v>6.62803649902343e-5</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="1">
         <v>0.000716686248779296</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N24" s="1">
@@ -1774,36 +1800,36 @@
       <c r="P24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="4">
         <v>7.66260004043579</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <v>2.38418579101562e-7</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>5.19752502441406e-5</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2">
         <v>8.44001770019531e-5</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K25" s="1">
         <v>0.000409603118896484</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="N25" s="1">
@@ -1812,74 +1838,74 @@
       <c r="P25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="4">
         <v>8.21994757652282</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>2.38418579101562e-7</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>5.29289245605468e-5</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>6.65187835693359e-5</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K26" s="1">
         <v>0.000533580780029296</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N26" s="2">
+      <c r="N26" s="1">
         <v>0.0039381980895996</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>10.5901801586151</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <v>2.38418579101562e-7</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>3.07559967041015e-5</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="2">
         <v>6.62803649902343e-5</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K27" s="1">
         <v>0.000404596328735351</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="N27" s="1">
@@ -1888,36 +1914,36 @@
       <c r="P27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="4">
         <v>8.79394030570983</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <v>2.38418579101562e-7</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>2.98023223876953e-5</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="2">
         <v>6.67572021484375e-5</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K28" s="1">
         <v>0.00047922134399414</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N28" s="1">
@@ -1926,36 +1952,36 @@
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="4">
         <v>8.87891507148742</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <v>4.76837158203125e-7</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>2.95639038085937e-5</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="2">
         <v>6.60419464111328e-5</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K29" s="1">
         <v>0.000409603118896484</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="1" t="s">
         <v>18</v>
       </c>
       <c r="N29" s="1">
@@ -1964,36 +1990,36 @@
       <c r="P29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="4">
         <v>9.03354883193969</v>
       </c>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <v>4.76837158203125e-7</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>2.98023223876953e-5</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="2">
         <v>6.60419464111328e-5</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>0.000393629074096679</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="N30" s="1">
@@ -2002,36 +2028,36 @@
       <c r="P30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="4">
         <v>8.13094329833984</v>
       </c>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>4.76837158203125e-7</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>2.93254852294921e-5</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="2">
         <v>6.60419464111328e-5</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K31" s="1">
         <v>0.000392436981201171</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N31" s="1">
@@ -2040,36 +2066,36 @@
       <c r="P31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q31" s="4">
         <v>8.24933838844299</v>
       </c>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <v>4.52995300292968e-7</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>4.58955764770507e-5</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="2">
         <v>6.89506530761718e-5</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K32" s="1">
         <v>0.000477957725524902</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="1" t="s">
         <v>21</v>
       </c>
       <c r="N32" s="1">
@@ -2078,36 +2104,36 @@
       <c r="P32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="4">
         <v>8.46339843273162</v>
       </c>
     </row>
     <row r="33" spans="1:17">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -2121,31 +2147,31 @@
       </c>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>7.74860382080078e-5</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="1">
         <v>0.000265359878540039</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H34" s="2">
         <v>0.000420093536376953</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K34" s="1">
         <v>0.00159430503845214</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="1" t="s">
         <v>11</v>
       </c>
       <c r="N34" s="1">
@@ -2154,36 +2180,36 @@
       <c r="P34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="4">
         <v>17.0335936546325</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="2">
         <v>6.50882720947265e-5</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="1">
         <v>0.000405550003051757</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="2">
         <v>0.000404596328735351</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K35" s="1">
         <v>0.00157356262207031</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N35" s="1">
@@ -2192,36 +2218,36 @@
       <c r="P35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="4">
         <v>16.739366531372</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>6.00814819335937e-5</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E36" s="1">
         <v>0.00032663345336914</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="2">
         <v>0.000411510467529296</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K36" s="1">
         <v>0.00186061859130859</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N36" s="1">
@@ -2230,30 +2256,30 @@
       <c r="P36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q36" s="4">
         <v>16.0673661231994</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37" s="2">
         <v>6.62803649902343e-5</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="1">
         <v>0.000324487686157226</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="2">
         <v>0.000401735305786132</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K37" s="1">
@@ -2268,30 +2294,30 @@
       <c r="P37" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="4">
         <v>15.9227004051208</v>
       </c>
     </row>
     <row r="38" spans="1:17">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="2">
         <v>6.53266906738281e-5</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <v>0.000275135040283203</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="2">
         <v>0.00041365623474121</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K38" s="1">
@@ -2306,30 +2332,30 @@
       <c r="P38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="4">
         <v>15.6709849834442</v>
       </c>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="2">
         <v>6.4849853515625e-5</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="2">
         <v>0.000283241271972656</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="2">
         <v>0.000399351119995117</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K39" s="1">
@@ -2344,30 +2370,30 @@
       <c r="P39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q39" s="4">
         <v>16.0773649215698</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="2">
         <v>6.41345977783203e-5</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="2">
         <v>0.000303268432617187</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="2">
         <v>0.000403404235839843</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K40" s="1">
@@ -2382,33 +2408,33 @@
       <c r="P40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="4">
         <v>15.3824586868286</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="2">
         <v>6.36577606201171e-5</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="2">
         <v>0.000319957733154296</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="2">
         <v>0.000424861907958984</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0.00164008140563964</v>
       </c>
       <c r="M41" s="1" t="s">
@@ -2420,30 +2446,30 @@
       <c r="P41" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="4">
         <v>14.8730609416961</v>
       </c>
     </row>
     <row r="42" spans="1:17">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="2">
         <v>6.38961791992187e-5</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="2">
         <v>0.000257253646850585</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="2">
         <v>0.00040435791015625</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K42" s="1">
@@ -2458,30 +2484,30 @@
       <c r="P42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="Q42" s="4">
         <v>15.8174641132354</v>
       </c>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="2">
         <v>6.36577606201171e-5</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="2">
         <v>0.000252008438110351</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="2">
         <v>0.000431776046752929</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K43" s="1">
@@ -2496,30 +2522,30 @@
       <c r="P43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q43" s="1">
+      <c r="Q43" s="4">
         <v>17.9333744049072</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="2">
         <v>6.54458999633789e-5</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="2">
         <v>0.000301289558410644</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="2">
         <v>0.000411534309387207</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K44" s="1">
@@ -2534,30 +2560,30 @@
       <c r="P44" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="4">
         <v>16.1517734766006</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="G45" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -2577,25 +2603,25 @@
       </c>
     </row>
     <row r="46" spans="1:17">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="2">
         <v>4.76837158203125e-6</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="2">
         <v>3.91006469726562e-5</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="4">
+      <c r="H46" s="2">
         <v>7.41481781005859e-5</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K46" s="1">
@@ -2610,30 +2636,30 @@
       <c r="P46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="Q46" s="4">
         <v>5.46216106414794</v>
       </c>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47" s="2">
         <v>2.86102294921875e-6</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="2">
         <v>3.14712524414062e-5</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="G47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="2">
         <v>6.00814819335937e-5</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K47" s="1">
@@ -2648,30 +2674,30 @@
       <c r="P47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="Q47" s="4">
         <v>4.96933531761169</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48" s="2">
         <v>3.33786010742187e-6</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E48" s="2">
         <v>3.88622283935546e-5</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H48" s="4">
+      <c r="H48" s="2">
         <v>5.98430633544921e-5</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K48" s="1">
@@ -2686,30 +2712,30 @@
       <c r="P48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="4">
         <v>5.04618072509765</v>
       </c>
     </row>
     <row r="49" spans="1:17">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="2">
         <v>2.62260437011718e-6</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <v>3.57627868652343e-5</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="2">
         <v>5.62667846679687e-5</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K49" s="1">
@@ -2724,30 +2750,30 @@
       <c r="P49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="4">
         <v>4.96667551994323</v>
       </c>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50" s="2">
         <v>2.14576721191406e-6</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E50" s="2">
         <v>3.52859497070312e-5</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="2">
         <v>6.36577606201171e-5</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K50" s="1">
@@ -2762,30 +2788,30 @@
       <c r="P50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="4">
         <v>5.12503337860107</v>
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51" s="2">
         <v>2.14576721191406e-6</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="2">
         <v>3.31401824951171e-5</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="G51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="2">
         <v>5.43594360351562e-5</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K51" s="1">
@@ -2800,33 +2826,33 @@
       <c r="P51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q51" s="1">
+      <c r="Q51" s="4">
         <v>4.9572422504425</v>
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52" s="2">
         <v>1.9073486328125e-6</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E52" s="2">
         <v>3.21865081787109e-5</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="G52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="2">
         <v>6.00814819335937e-5</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0.000252485275268554</v>
       </c>
       <c r="M52" s="1" t="s">
@@ -2838,30 +2864,30 @@
       <c r="P52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q52" s="1">
+      <c r="Q52" s="4">
         <v>4.824631690979</v>
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="2">
         <v>2.38418579101562e-6</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E53" s="2">
         <v>3.48091125488281e-5</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="2">
         <v>6.58035278320312e-5</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K53" s="1">
@@ -2876,30 +2902,30 @@
       <c r="P53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q53" s="1">
+      <c r="Q53" s="4">
         <v>4.7691056728363</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54" s="2">
         <v>2.38418579101562e-6</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E54" s="2">
         <v>2.90870666503906e-5</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="4">
+      <c r="H54" s="2">
         <v>7.15255737304687e-5</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K54" s="1">
@@ -2914,30 +2940,30 @@
       <c r="P54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q54" s="1">
+      <c r="Q54" s="4">
         <v>4.85856032371521</v>
       </c>
     </row>
     <row r="55" spans="1:17">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55" s="2">
         <v>2.62260437011718e-6</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="2">
         <v>2.8848648071289e-5</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="2">
         <v>6.15119934082031e-5</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K55" s="1">
@@ -2952,30 +2978,30 @@
       <c r="P55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q55" s="1">
+      <c r="Q55" s="4">
         <v>4.68709802627563</v>
       </c>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56" s="2">
         <v>2.71797180175781e-6</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E56" s="2">
         <v>3.38554382324218e-5</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="2">
         <v>6.27279281616211e-5</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K56" s="1">
@@ -2990,7 +3016,7 @@
       <c r="P56" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="4">
         <v>4.96660239696502</v>
       </c>
     </row>
